--- a/excelFiles/templates/bigdata.xlsx
+++ b/excelFiles/templates/bigdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abitbekov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abitbekov/PycharmProject/MVPDiploma/excelFiles/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A22F0B-F82F-B44C-93E8-37FBE050D1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37F7B75-D252-C148-B1DE-1ED12A9F5F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{573C22DB-2043-4240-8C20-710199A2F366}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16000" xr2:uid="{573C22DB-2043-4240-8C20-710199A2F366}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F7E6B-2D27-F544-A80B-6151038BD8A3}">
   <dimension ref="A1:BQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N20" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:R22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
